--- a/biology/Biologie cellulaire et moléculaire/Hème_oxygénase/Hème_oxygénase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hème_oxygénase/Hème_oxygénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A8me_oxyg%C3%A9nase</t>
+          <t>Hème_oxygénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hème oxygénase (HO) est une oxydoréductase qui catalyse la réaction :
 hème + 3 accepteurs réduits + 3 O2  
         ⇌
     {\displaystyle \rightleftharpoons }
   biliverdine + Fe2+ + CO + 3 accepteurs d'électrons oxydés + 3 H2O.
-Cette enzyme intervient dans la dégradation de l'hème ; ses produits de dégradation sont la biliverdine, un cation de fer Fe2+ et le monoxyde de carbone CO[2],[3]. Elle scinde le noyau de l'hème au niveau d'un pont alpha-méthène pour donner une molécule de biliverdine (ou de verdoglobine si la molécule d'hème est associée à une globine). La biliverdine est ensuite convertie en bilirubine par la biliverdine réductase.
+Cette enzyme intervient dans la dégradation de l'hème ; ses produits de dégradation sont la biliverdine, un cation de fer Fe2+ et le monoxyde de carbone CO,. Elle scinde le noyau de l'hème au niveau d'un pont alpha-méthène pour donner une molécule de biliverdine (ou de verdoglobine si la molécule d'hème est associée à une globine). La biliverdine est ensuite convertie en bilirubine par la biliverdine réductase.
 			Hème
 			Biliverdine
 Cette réaction s'observe lors de la formation d'ecchymoses avec les différents changements de couleur, le rouge est dû à l'hème, le vert à la biliverdine, et le jaune à la bilirubine. Dans les conditions physiologiques normales, l'activité de l'hème oxygénase est très importante au niveau de la rate, lorsque les vieux érythrocytes sont séquestrés et détruits.
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A8me_oxyg%C3%A9nase</t>
+          <t>Hème_oxygénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Isoformes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois isoformes de l'hème oxygénase.
 L'hème oxygénase 1 (HO-1) est l'isoforme induit en réponse à divers stress (hypoxie, cytokines…).
